--- a/datasets/cafo2.xlsx
+++ b/datasets/cafo2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsecam\Documents\CAFO-2019-2020\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsec16\OneDrive - Michigan State University\Documents\Github\CAFO_June_2020\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_094E5B74BA1A10509FC98D81F68A35AA9A3D24E0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5B79FAB-02A3-4B6A-9C77-A427B4BD937C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treatment-Outcome data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treatment-Outcome data'!$A$1:$U$549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treatment-Outcome data'!$A$1:$AJ$549</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9899" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9898" uniqueCount="866">
   <si>
     <t>Refid</t>
   </si>
@@ -2633,7 +2634,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2697,7 +2698,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2979,15 +2980,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AJ552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36541,8 +36542,8 @@
       <c r="AH495" s="2"/>
     </row>
     <row r="496" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A496" t="s">
-        <v>687</v>
+      <c r="A496">
+        <v>1552</v>
       </c>
       <c r="B496" t="s">
         <v>819</v>
@@ -39886,6 +39887,7 @@
       <c r="L552" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ549" xr:uid="{96CF3E12-64D3-4033-AC10-EC69074F9C54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>